--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/CCE_Cartella_Clinica_Elettronica/14/CCE_Cart_Clin_Elettr_accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/CCE_Cartella_Clinica_Elettronica/14/CCE_Cart_Clin_Elettr_accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\CCE_Cartella_Clinica_Elettronica\14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86243B7A-2031-447C-9AFB-02C597808ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7433366-5411-458C-9A7D-B7DA10831504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,12 +648,6 @@
     </r>
   </si>
   <si>
-    <t>2023-12-22T09:42:44.086Z</t>
-  </si>
-  <si>
-    <t>87cdffa02f86e057</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -802,12 +796,6 @@
     </r>
   </si>
   <si>
-    <t>2024-01-09T09:07:00.656Z</t>
-  </si>
-  <si>
-    <t>35196cb74f9aba69</t>
-  </si>
-  <si>
     <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
  Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
   </si>
@@ -1040,12 +1028,6 @@
     </r>
   </si>
   <si>
-    <t>2023-12-22T09:42:11.303Z</t>
-  </si>
-  <si>
-    <t>7fd6f6be6366cbc0</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_PSS_KO</t>
   </si>
   <si>
@@ -1181,12 +1163,6 @@
     </r>
   </si>
   <si>
-    <t>2024-01-09T09:07:25.155Z</t>
-  </si>
-  <si>
-    <t>5eda9d846785ccba</t>
-  </si>
-  <si>
     <t>Il campo "action_id" è stato valorizzato con la stringa "TEST".</t>
   </si>
   <si>
@@ -1441,15 +1417,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-08T10:35:09.964Z</t>
-  </si>
-  <si>
-    <t>60b8373df2d33c60</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.5977a1c83a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce la valorizzazione del livello di riservatezza. Per il caso di test è stato forzata la rimozione del livello di riservatezza.</t>
   </si>
   <si>
@@ -1469,15 +1436,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-05T11:33:33.154Z</t>
-  </si>
-  <si>
-    <t>f608d4f15c9794de</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.cd41aad0d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce i livelli di riservatezza previsti. Per il caso di test è stato forzato il livello Restricted.</t>
   </si>
   <si>
@@ -1509,15 +1467,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-05T11:34:41.168Z</t>
-  </si>
-  <si>
-    <t>8291e408be5becca</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.0f104188e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce il nome e cognome del paziente. Per il test è stato rimosso manualmente il cognome nel cda2.</t>
   </si>
   <si>
@@ -1529,15 +1478,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-05T11:27:46.466Z</t>
-  </si>
-  <si>
-    <t>0016c26f5a385489</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.21865c96f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce la valorizzazione del Sesso con i valori previsti. Per il caso di test è stato forzato il valore NB.</t>
   </si>
   <si>
@@ -1549,15 +1489,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-09T09:08:58.534Z</t>
-  </si>
-  <si>
-    <t>237aabab55a99567</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.c557be79a9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce le informazioni inerenti alle “Condizioni del paziente alla dimissione e diagnosi alla dimissione”. Per il caso di test si è forzatamente rimossa la sezione Condizioni_paziente_diagnosi_dimissione.</t>
   </si>
   <si>
@@ -1569,15 +1500,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-08T11:15:40.918Z</t>
-  </si>
-  <si>
-    <t>efaa36d818b4e220</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.ed53fc6552^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
   </si>
   <si>
@@ -1613,15 +1535,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>2024-01-08T10:17:36.304Z</t>
-  </si>
-  <si>
-    <t>1357c9479adfda48</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.0fbd3b76c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>L'applicativo gestisce la valorizzazione della diagnosi nel motivo del ricovero secondo la codifica ICD9-CM. Per il test si è forzatamente modificato il codice della diagnosi inserendo un valore non previsto nel dizionario associato (ICD9-CM), cioè 4111199</t>
@@ -2242,15 +2155,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-04T10:12:16.017Z</t>
-  </si>
-  <si>
-    <t>62bc7ad680f8a955</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.adc101668a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce i livelli di riservatezza previsti. Per il caso di test è stato forzata la rimozione del livello di riservatezza</t>
   </si>
   <si>
@@ -2273,15 +2177,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-05T09:22:46.703Z</t>
-  </si>
-  <si>
-    <t>dc481a6bf7a2b83a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.8212ffbc52^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
  Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
   </si>
@@ -2302,15 +2197,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-05T09:35:57.048Z</t>
-  </si>
-  <si>
-    <t>cf24e07ba2154dc3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.d86c7b0636^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
   </si>
   <si>
@@ -2319,15 +2205,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-05T09:00:41.942Z</t>
-  </si>
-  <si>
-    <t>129e3d2fd605eea0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.673cff6a50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
   </si>
   <si>
@@ -2382,15 +2259,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-09T09:17:32.417Z</t>
-  </si>
-  <si>
-    <t>9842b3989f34bfec</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.7f48a6bf99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce la tipologia di esame. Per il caso di test è stata forzata la mancata valorizzazione.</t>
   </si>
   <si>
@@ -2402,15 +2270,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-01-09T09:18:15.761Z</t>
-  </si>
-  <si>
-    <t>29f8bfebc1f69c83</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.5c32ada844^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce i dati obbligatori del referto. Per il caso di test è stata forzata la mancata valorizzazione.</t>
   </si>
   <si>
@@ -2500,15 +2359,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2024-01-04T10:33:05.189Z</t>
-  </si>
-  <si>
-    <t>b6044bc6596e59e2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.3560d4435e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>L'applicativo gestisce correttamente il signatureCode. Per il caso di test è stata forzata la valorizzazione con T.</t>
@@ -4956,6 +4806,156 @@
   </si>
   <si>
     <t>Il software CCE_Cartella_Clinica_Elettronica non l'informazione relativa al tipo di accesso. Per questa ragione il caso di test 11 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>bd822d56f656d8f0</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:41:25.172Z</t>
+  </si>
+  <si>
+    <t>85778a50fa8146bf</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:42:58.846Z</t>
+  </si>
+  <si>
+    <t>ed32c8b2435d05de</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:44:16.182Z</t>
+  </si>
+  <si>
+    <t>18f568c6cc67f040</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:45:01.027Z</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:48:11.336Z</t>
+  </si>
+  <si>
+    <t>dab5607116683bf0</t>
+  </si>
+  <si>
+    <t>266e033015b16397</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:47:49.029Z</t>
+  </si>
+  <si>
+    <t>3139781231a1d634</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:47:29.405Z</t>
+  </si>
+  <si>
+    <t>bd0cb2b40b984157</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:46:59.630Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.47d33cda28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.09d8cd4a5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.ca32dc3387^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.4d701664b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4e854b59dd01953f</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:56:00.997Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.2d8b22d0ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>612ac34e46951505</t>
+  </si>
+  <si>
+    <t>2024-01-24T16:55:36.539Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.3028359f72^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8271623f2bea9eb8</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:00:34.806Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.cd195cb53fd7287580363aba1b25a66047b159f789f838a4ca5cdc14de4f5b4e.3d8c01161f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:06:30.577Z</t>
+  </si>
+  <si>
+    <t>8a1a4ffefc31f367</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.47f94dbea8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:06:10.257Z</t>
+  </si>
+  <si>
+    <t>c96076b442f51ac6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.da1231c1dd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:05:50.210Z</t>
+  </si>
+  <si>
+    <t>c9afe68ca9524978</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.fe2000d9ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:05:31.211Z</t>
+  </si>
+  <si>
+    <t>7de0ca7a9957d46b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.9d9b294081^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:05:15.052Z</t>
+  </si>
+  <si>
+    <t>e3da71d5f27d8668</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.e78ab5ccce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:04:55.803Z</t>
+  </si>
+  <si>
+    <t>142e21ed4813d1d7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.32c7d326d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-24T17:04:37.699Z</t>
+  </si>
+  <si>
+    <t>d5303f25da166d28</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.e6d299238ca8507fa2bc5e6bee77d06b1408bed078a1d3ef5c7319326d280730.5bc220d3fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -5289,7 +5289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5391,6 +5391,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5409,18 +5422,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7884,10 +7887,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomRight" activeCell="E403" sqref="E403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7925,12 +7928,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7948,14 +7951,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7973,12 +7976,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7997,12 +8000,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -8020,8 +8023,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8453,7 +8456,7 @@
       <c r="J18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="39" t="s">
         <v>77</v>
       </c>
       <c r="L18" s="25"/>
@@ -9063,16 +9066,16 @@
         <v>118</v>
       </c>
       <c r="F36" s="23">
-        <v>45282</v>
+        <v>45315</v>
       </c>
       <c r="G36" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="I36" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>66</v>
@@ -9089,14 +9092,14 @@
         <v>66</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q36" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R36" s="26"/>
-      <c r="S36" s="50" t="s">
-        <v>134</v>
+      <c r="S36" s="38" t="s">
+        <v>130</v>
       </c>
       <c r="T36" s="28" t="s">
         <v>116</v>
@@ -9110,13 +9113,13 @@
         <v>47</v>
       </c>
       <c r="C37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="24"/>
@@ -9147,10 +9150,10 @@
         <v>78</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
@@ -9178,25 +9181,25 @@
         <v>47</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>130</v>
-      </c>
       <c r="F39" s="23">
-        <v>45300</v>
+        <v>45315</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>131</v>
+        <v>927</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>132</v>
+        <v>926</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>66</v>
@@ -9213,14 +9216,14 @@
         <v>66</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R39" s="26"/>
-      <c r="S39" s="49" t="s">
-        <v>134</v>
+      <c r="S39" s="37" t="s">
+        <v>130</v>
       </c>
       <c r="T39" s="28" t="s">
         <v>116</v>
@@ -9237,10 +9240,10 @@
         <v>87</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
@@ -9271,10 +9274,10 @@
         <v>96</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
@@ -9305,10 +9308,10 @@
         <v>105</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
@@ -9339,10 +9342,10 @@
         <v>48</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
@@ -9373,22 +9376,22 @@
         <v>60</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F44" s="23">
-        <v>45282</v>
+        <v>45315</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>145</v>
+        <v>923</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>146</v>
+        <v>922</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>66</v>
@@ -9405,14 +9408,14 @@
         <v>66</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R44" s="26"/>
-      <c r="S44" s="50" t="s">
-        <v>155</v>
+      <c r="S44" s="38" t="s">
+        <v>147</v>
       </c>
       <c r="T44" s="28" t="s">
         <v>116</v>
@@ -9426,13 +9429,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
@@ -9463,10 +9466,10 @@
         <v>78</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
@@ -9494,25 +9497,25 @@
         <v>47</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F47" s="23">
-        <v>45300</v>
+        <v>45315</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>153</v>
+        <v>925</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>154</v>
+        <v>924</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>66</v>
@@ -9529,14 +9532,14 @@
         <v>66</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R47" s="26"/>
-      <c r="S47" s="49" t="s">
-        <v>155</v>
+      <c r="S47" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="T47" s="28" t="s">
         <v>116</v>
@@ -9553,10 +9556,10 @@
         <v>87</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
@@ -9587,10 +9590,10 @@
         <v>96</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="24"/>
@@ -9621,10 +9624,10 @@
         <v>105</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
@@ -9655,10 +9658,10 @@
         <v>48</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="24"/>
@@ -9691,10 +9694,10 @@
         <v>60</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
@@ -9707,7 +9710,7 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
       <c r="P52" s="25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q52" s="25"/>
       <c r="R52" s="26" t="s">
@@ -9726,13 +9729,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="24"/>
@@ -9765,10 +9768,10 @@
         <v>78</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
@@ -9798,13 +9801,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="24"/>
@@ -9817,7 +9820,7 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26" t="s">
@@ -9839,10 +9842,10 @@
         <v>87</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="24"/>
@@ -9875,10 +9878,10 @@
         <v>96</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="24"/>
@@ -9911,10 +9914,10 @@
         <v>105</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
@@ -9947,10 +9950,10 @@
         <v>48</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="24"/>
@@ -9981,10 +9984,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="24"/>
@@ -10015,10 +10018,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
@@ -10049,10 +10052,10 @@
         <v>48</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="24"/>
@@ -10083,10 +10086,10 @@
         <v>48</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="24"/>
@@ -10117,10 +10120,10 @@
         <v>48</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="24"/>
@@ -10151,10 +10154,10 @@
         <v>48</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24"/>
@@ -10185,10 +10188,10 @@
         <v>48</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="24"/>
@@ -10219,10 +10222,10 @@
         <v>48</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24"/>
@@ -10253,10 +10256,10 @@
         <v>48</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="24"/>
@@ -10287,10 +10290,10 @@
         <v>48</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="24"/>
@@ -10321,22 +10324,22 @@
         <v>60</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F70" s="23">
-        <v>45299</v>
+        <v>45315</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>196</v>
+        <v>937</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>197</v>
+        <v>936</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>198</v>
+        <v>938</v>
       </c>
       <c r="J70" s="25" t="s">
         <v>66</v>
@@ -10353,14 +10356,14 @@
         <v>66</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q70" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R70" s="26"/>
       <c r="S70" s="30" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="T70" s="28" t="s">
         <v>116</v>
@@ -10377,10 +10380,10 @@
         <v>60</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
@@ -10390,7 +10393,7 @@
         <v>70</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -10415,22 +10418,22 @@
         <v>60</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F72" s="23">
-        <v>45296</v>
+        <v>45315</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>204</v>
+        <v>935</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>205</v>
+        <v>934</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>206</v>
+        <v>939</v>
       </c>
       <c r="J72" s="25" t="s">
         <v>66</v>
@@ -10447,14 +10450,14 @@
         <v>66</v>
       </c>
       <c r="P72" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q72" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R72" s="26"/>
       <c r="S72" s="30" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="T72" s="28" t="s">
         <v>116</v>
@@ -10471,22 +10474,22 @@
         <v>60</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F73" s="23">
         <v>45314</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J73" s="25" t="s">
         <v>66</v>
@@ -10503,14 +10506,14 @@
         <v>66</v>
       </c>
       <c r="P73" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q73" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R73" s="26"/>
       <c r="S73" s="30" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="T73" s="28" t="s">
         <v>116</v>
@@ -10527,22 +10530,22 @@
         <v>60</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F74" s="23">
-        <v>45296</v>
+        <v>45315</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>217</v>
+        <v>933</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>932</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>218</v>
+        <v>940</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>66</v>
@@ -10559,14 +10562,14 @@
         <v>66</v>
       </c>
       <c r="P74" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q74" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R74" s="26"/>
       <c r="S74" s="27" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="T74" s="28" t="s">
         <v>116</v>
@@ -10583,22 +10586,22 @@
         <v>60</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F75" s="23">
-        <v>45296</v>
+        <v>45315</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>222</v>
+        <v>930</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>223</v>
+        <v>931</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>224</v>
+        <v>941</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>66</v>
@@ -10615,14 +10618,14 @@
         <v>66</v>
       </c>
       <c r="P75" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q75" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R75" s="26"/>
       <c r="S75" s="27" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="T75" s="28" t="s">
         <v>116</v>
@@ -10639,22 +10642,22 @@
         <v>60</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F76" s="23">
-        <v>45300</v>
+        <v>45315</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>228</v>
+        <v>946</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>229</v>
+        <v>945</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>230</v>
+        <v>947</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>66</v>
@@ -10671,14 +10674,14 @@
         <v>66</v>
       </c>
       <c r="P76" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q76" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R76" s="26"/>
       <c r="S76" s="27" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="T76" s="28" t="s">
         <v>116</v>
@@ -10695,22 +10698,22 @@
         <v>60</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="F77" s="23">
-        <v>45299</v>
+        <v>45315</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="H77" s="29" t="s">
-        <v>235</v>
+        <v>943</v>
+      </c>
+      <c r="H77" s="52" t="s">
+        <v>942</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>236</v>
+        <v>944</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>66</v>
@@ -10727,14 +10730,14 @@
         <v>66</v>
       </c>
       <c r="P77" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q77" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R77" s="26"/>
-      <c r="S77" s="50" t="s">
-        <v>961</v>
+      <c r="S77" s="38" t="s">
+        <v>911</v>
       </c>
       <c r="T77" s="28" t="s">
         <v>116</v>
@@ -10751,22 +10754,22 @@
         <v>60</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="F78" s="23">
         <v>45314</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="J78" s="25" t="s">
         <v>66</v>
@@ -10783,14 +10786,14 @@
         <v>66</v>
       </c>
       <c r="P78" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q78" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R78" s="26"/>
-      <c r="S78" s="50" t="s">
-        <v>962</v>
+      <c r="S78" s="38" t="s">
+        <v>912</v>
       </c>
       <c r="T78" s="28" t="s">
         <v>116</v>
@@ -10807,10 +10810,10 @@
         <v>60</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
@@ -10820,7 +10823,7 @@
         <v>70</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -10845,22 +10848,22 @@
         <v>60</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F80" s="23">
-        <v>45299</v>
+        <v>45315</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>247</v>
+        <v>949</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>248</v>
+        <v>948</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>249</v>
+        <v>950</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>66</v>
@@ -10877,14 +10880,14 @@
         <v>66</v>
       </c>
       <c r="P80" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q80" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R80" s="26"/>
       <c r="S80" s="27" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="T80" s="28" t="s">
         <v>116</v>
@@ -10901,10 +10904,10 @@
         <v>60</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="24"/>
@@ -10914,7 +10917,7 @@
         <v>70</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -10939,10 +10942,10 @@
         <v>78</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="24"/>
@@ -10973,10 +10976,10 @@
         <v>78</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
@@ -11007,10 +11010,10 @@
         <v>78</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
@@ -11041,10 +11044,10 @@
         <v>78</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
@@ -11075,10 +11078,10 @@
         <v>78</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
@@ -11109,10 +11112,10 @@
         <v>78</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
@@ -11143,10 +11146,10 @@
         <v>78</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
@@ -11177,10 +11180,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
@@ -11211,10 +11214,10 @@
         <v>78</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -11245,10 +11248,10 @@
         <v>78</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
@@ -11279,10 +11282,10 @@
         <v>78</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
@@ -11313,10 +11316,10 @@
         <v>78</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
@@ -11347,10 +11350,10 @@
         <v>78</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
@@ -11381,10 +11384,10 @@
         <v>78</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
@@ -11415,10 +11418,10 @@
         <v>78</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
@@ -11449,10 +11452,10 @@
         <v>78</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
@@ -11483,10 +11486,10 @@
         <v>78</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
@@ -11517,10 +11520,10 @@
         <v>78</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
@@ -11551,10 +11554,10 @@
         <v>78</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
@@ -11585,10 +11588,10 @@
         <v>87</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="24"/>
@@ -11619,10 +11622,10 @@
         <v>87</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="24"/>
@@ -11653,10 +11656,10 @@
         <v>87</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
@@ -11687,10 +11690,10 @@
         <v>87</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
@@ -11721,10 +11724,10 @@
         <v>87</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
@@ -11755,10 +11758,10 @@
         <v>87</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
@@ -11789,10 +11792,10 @@
         <v>87</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
@@ -11823,10 +11826,10 @@
         <v>87</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
@@ -11857,10 +11860,10 @@
         <v>87</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
@@ -11891,10 +11894,10 @@
         <v>87</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
@@ -11925,10 +11928,10 @@
         <v>87</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
@@ -11959,10 +11962,10 @@
         <v>87</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
@@ -11993,10 +11996,10 @@
         <v>87</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
@@ -12027,10 +12030,10 @@
         <v>96</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -12061,10 +12064,10 @@
         <v>96</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
@@ -12095,10 +12098,10 @@
         <v>96</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
@@ -12129,10 +12132,10 @@
         <v>96</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
@@ -12163,10 +12166,10 @@
         <v>96</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
@@ -12197,10 +12200,10 @@
         <v>96</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="24"/>
@@ -12231,10 +12234,10 @@
         <v>96</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
@@ -12265,10 +12268,10 @@
         <v>96</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
@@ -12299,10 +12302,10 @@
         <v>96</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="24"/>
@@ -12333,10 +12336,10 @@
         <v>96</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
@@ -12367,10 +12370,10 @@
         <v>96</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
@@ -12401,10 +12404,10 @@
         <v>96</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
@@ -12435,10 +12438,10 @@
         <v>96</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
@@ -12469,10 +12472,10 @@
         <v>96</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
@@ -12503,10 +12506,10 @@
         <v>96</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
@@ -12537,10 +12540,10 @@
         <v>105</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
@@ -12571,10 +12574,10 @@
         <v>105</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
@@ -12605,10 +12608,10 @@
         <v>105</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
@@ -12639,10 +12642,10 @@
         <v>105</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
@@ -12673,10 +12676,10 @@
         <v>105</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
@@ -12707,10 +12710,10 @@
         <v>105</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
@@ -12741,10 +12744,10 @@
         <v>105</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
@@ -12775,10 +12778,10 @@
         <v>105</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
@@ -12809,10 +12812,10 @@
         <v>105</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
@@ -12843,10 +12846,10 @@
         <v>105</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
@@ -12877,10 +12880,10 @@
         <v>105</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="24"/>
@@ -12911,10 +12914,10 @@
         <v>105</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
@@ -12945,10 +12948,10 @@
         <v>105</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -12979,10 +12982,10 @@
         <v>105</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -13013,10 +13016,10 @@
         <v>105</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -13047,10 +13050,10 @@
         <v>105</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" s="24"/>
@@ -13081,10 +13084,10 @@
         <v>105</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -13115,10 +13118,10 @@
         <v>105</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="24"/>
@@ -13149,10 +13152,10 @@
         <v>105</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
@@ -13183,10 +13186,10 @@
         <v>105</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -13217,10 +13220,10 @@
         <v>105</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
@@ -13251,10 +13254,10 @@
         <v>105</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" s="24"/>
@@ -13285,10 +13288,10 @@
         <v>105</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="24"/>
@@ -13319,10 +13322,10 @@
         <v>105</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -13353,10 +13356,10 @@
         <v>105</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -13384,13 +13387,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
@@ -13400,7 +13403,7 @@
         <v>70</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -13422,13 +13425,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
@@ -13438,7 +13441,7 @@
         <v>70</v>
       </c>
       <c r="K155" s="25" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -13460,13 +13463,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
@@ -13476,7 +13479,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="25" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -13498,13 +13501,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
@@ -13514,7 +13517,7 @@
         <v>70</v>
       </c>
       <c r="K157" s="25" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -13536,25 +13539,25 @@
         <v>47</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="F158" s="23">
-        <v>45295</v>
+        <v>45315</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>412</v>
+        <v>969</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>413</v>
+        <v>970</v>
       </c>
       <c r="I158" s="29" t="s">
-        <v>414</v>
+        <v>971</v>
       </c>
       <c r="J158" s="25" t="s">
         <v>66</v>
@@ -13571,14 +13574,14 @@
         <v>66</v>
       </c>
       <c r="P158" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q158" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R158" s="26"/>
       <c r="S158" s="27" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="T158" s="28" t="s">
         <v>116</v>
@@ -13592,13 +13595,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
@@ -13608,7 +13611,7 @@
         <v>70</v>
       </c>
       <c r="K159" s="25" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -13630,25 +13633,25 @@
         <v>47</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="F160" s="23">
-        <v>45296</v>
+        <v>45315</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>421</v>
+        <v>966</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>422</v>
+        <v>967</v>
       </c>
       <c r="I160" s="29" t="s">
-        <v>423</v>
+        <v>968</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>66</v>
@@ -13665,14 +13668,14 @@
         <v>66</v>
       </c>
       <c r="P160" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q160" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R160" s="26"/>
       <c r="S160" s="27" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="T160" s="28" t="s">
         <v>116</v>
@@ -13686,25 +13689,25 @@
         <v>47</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="F161" s="23">
         <v>45315</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>969</v>
+        <v>919</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>968</v>
+        <v>918</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>66</v>
@@ -13721,14 +13724,14 @@
         <v>66</v>
       </c>
       <c r="P161" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q161" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R161" s="26"/>
       <c r="S161" s="27" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="T161" s="28" t="s">
         <v>116</v>
@@ -13742,25 +13745,25 @@
         <v>47</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="F162" s="23">
-        <v>45296</v>
+        <v>45315</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>429</v>
+        <v>963</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>430</v>
+        <v>964</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>431</v>
+        <v>965</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>66</v>
@@ -13777,14 +13780,14 @@
         <v>66</v>
       </c>
       <c r="P162" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q162" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R162" s="26"/>
       <c r="S162" s="27" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="T162" s="28" t="s">
         <v>116</v>
@@ -13798,25 +13801,25 @@
         <v>47</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="F163" s="23">
-        <v>45296</v>
+        <v>45315</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>434</v>
+        <v>960</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>435</v>
+        <v>961</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>436</v>
+        <v>962</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>66</v>
@@ -13833,14 +13836,14 @@
         <v>66</v>
       </c>
       <c r="P163" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q163" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R163" s="26"/>
       <c r="S163" s="27" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="T163" s="28" t="s">
         <v>116</v>
@@ -13854,13 +13857,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
@@ -13870,7 +13873,7 @@
         <v>70</v>
       </c>
       <c r="K164" s="25" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -13892,25 +13895,25 @@
         <v>47</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="F165" s="23">
         <v>45314</v>
       </c>
       <c r="G165" s="29" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="H165" s="29" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="I165" s="29" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>66</v>
@@ -13927,14 +13930,14 @@
         <v>66</v>
       </c>
       <c r="P165" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q165" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R165" s="26"/>
       <c r="S165" s="27" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="T165" s="28" t="s">
         <v>116</v>
@@ -13948,25 +13951,25 @@
         <v>47</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="F166" s="23">
         <v>45314</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="H166" s="29" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="I166" s="29" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="J166" s="25" t="s">
         <v>66</v>
@@ -13983,14 +13986,14 @@
         <v>66</v>
       </c>
       <c r="P166" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q166" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R166" s="26"/>
       <c r="S166" s="27" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="T166" s="28" t="s">
         <v>116</v>
@@ -14004,25 +14007,25 @@
         <v>47</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="F167" s="23">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>453</v>
+        <v>957</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>454</v>
+        <v>958</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>455</v>
+        <v>959</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>66</v>
@@ -14039,14 +14042,14 @@
         <v>66</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q167" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R167" s="26"/>
       <c r="S167" s="27" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="T167" s="28" t="s">
         <v>116</v>
@@ -14060,25 +14063,25 @@
         <v>47</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="F168" s="23">
-        <v>45300</v>
+        <v>45315</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>459</v>
+        <v>954</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>460</v>
+        <v>955</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>461</v>
+        <v>956</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>66</v>
@@ -14095,14 +14098,14 @@
         <v>66</v>
       </c>
       <c r="P168" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q168" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R168" s="26"/>
       <c r="S168" s="27" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="T168" s="28" t="s">
         <v>116</v>
@@ -14116,25 +14119,25 @@
         <v>47</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="F169" s="23">
         <v>45314</v>
       </c>
       <c r="G169" s="29" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="H169" s="29" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="I169" s="29" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
       <c r="J169" s="25" t="s">
         <v>66</v>
@@ -14151,14 +14154,14 @@
         <v>66</v>
       </c>
       <c r="P169" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q169" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R169" s="26"/>
       <c r="S169" s="27" t="s">
-        <v>468</v>
+        <v>421</v>
       </c>
       <c r="T169" s="28" t="s">
         <v>116</v>
@@ -14172,13 +14175,13 @@
         <v>47</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
@@ -14188,7 +14191,7 @@
         <v>70</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>963</v>
+        <v>913</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -14210,13 +14213,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
@@ -14226,7 +14229,7 @@
         <v>70</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>964</v>
+        <v>914</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -14248,13 +14251,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>473</v>
+        <v>426</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
@@ -14264,7 +14267,7 @@
         <v>70</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>965</v>
+        <v>915</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -14286,13 +14289,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
@@ -14302,7 +14305,7 @@
         <v>70</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -14324,13 +14327,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
@@ -14340,7 +14343,7 @@
         <v>70</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>967</v>
+        <v>917</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -14362,25 +14365,25 @@
         <v>47</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="F175" s="23">
         <v>45314</v>
       </c>
       <c r="G175" s="29" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="H175" s="29" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="I175" s="29" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="J175" s="25" t="s">
         <v>66</v>
@@ -14397,14 +14400,14 @@
         <v>66</v>
       </c>
       <c r="P175" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q175" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R175" s="26"/>
       <c r="S175" s="27" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="T175" s="28" t="s">
         <v>116</v>
@@ -14418,25 +14421,25 @@
         <v>47</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="F176" s="23">
-        <v>45295</v>
+        <v>45315</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>487</v>
+        <v>951</v>
       </c>
       <c r="H176" s="29" t="s">
-        <v>488</v>
+        <v>952</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>489</v>
+        <v>953</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>66</v>
@@ -14453,14 +14456,14 @@
         <v>66</v>
       </c>
       <c r="P176" s="25" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="Q176" s="25" t="s">
         <v>67</v>
       </c>
       <c r="R176" s="26"/>
       <c r="S176" s="27" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="T176" s="28" t="s">
         <v>116</v>
@@ -14474,13 +14477,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -14508,13 +14511,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -14542,13 +14545,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -14576,13 +14579,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -14610,13 +14613,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -14644,13 +14647,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -14678,13 +14681,13 @@
         <v>47</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -14712,13 +14715,13 @@
         <v>47</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -14746,13 +14749,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -14780,13 +14783,13 @@
         <v>47</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -14814,13 +14817,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -14848,13 +14851,13 @@
         <v>47</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -14882,13 +14885,13 @@
         <v>47</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -14916,13 +14919,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -14950,13 +14953,13 @@
         <v>47</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -14984,13 +14987,13 @@
         <v>47</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -15018,13 +15021,13 @@
         <v>47</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -15052,13 +15055,13 @@
         <v>47</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -15086,13 +15089,13 @@
         <v>47</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -15120,13 +15123,13 @@
         <v>47</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -15154,13 +15157,13 @@
         <v>47</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -15191,10 +15194,10 @@
         <v>48</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -15219,16 +15222,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -15253,16 +15256,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -15287,16 +15290,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -15321,16 +15324,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -15355,16 +15358,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -15389,16 +15392,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -15423,16 +15426,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -15457,16 +15460,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -15491,16 +15494,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -15525,16 +15528,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -15559,16 +15562,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -15593,16 +15596,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -15627,16 +15630,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -15661,16 +15664,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -15695,16 +15698,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -15729,16 +15732,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -15763,16 +15766,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -15797,16 +15800,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -15831,16 +15834,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -15865,16 +15868,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -15899,16 +15902,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -15933,16 +15936,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -15967,16 +15970,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -16001,16 +16004,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -16035,16 +16038,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -16069,16 +16072,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -16103,16 +16106,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -16137,16 +16140,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -16171,16 +16174,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -16205,16 +16208,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -16239,16 +16242,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -16273,16 +16276,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -16307,16 +16310,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -16341,16 +16344,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -16375,16 +16378,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -16409,16 +16412,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -16443,16 +16446,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -16477,16 +16480,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -16511,16 +16514,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -16545,16 +16548,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -16579,16 +16582,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -16613,16 +16616,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -16647,16 +16650,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -16681,16 +16684,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -16715,16 +16718,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -16749,16 +16752,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -16783,16 +16786,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -16817,16 +16820,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -16851,16 +16854,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -16885,16 +16888,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -16919,16 +16922,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -16953,16 +16956,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -16987,16 +16990,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -17021,16 +17024,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -17055,16 +17058,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -17089,16 +17092,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -17123,16 +17126,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>651</v>
+        <v>601</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -17157,16 +17160,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -17191,16 +17194,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -17225,16 +17228,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -17259,16 +17262,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -17293,16 +17296,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>659</v>
+        <v>609</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -17327,16 +17330,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>661</v>
+        <v>611</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -17361,16 +17364,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -17395,16 +17398,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -17429,16 +17432,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -17463,16 +17466,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -17497,16 +17500,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -17531,16 +17534,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -17565,16 +17568,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -17599,16 +17602,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -17633,16 +17636,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -17667,16 +17670,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -17701,16 +17704,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -17735,16 +17738,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -17769,16 +17772,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>688</v>
+        <v>638</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -17803,16 +17806,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -17837,16 +17840,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -17871,16 +17874,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -17905,16 +17908,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>695</v>
+        <v>645</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -17939,16 +17942,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>697</v>
+        <v>647</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -17973,16 +17976,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -18007,16 +18010,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -18041,16 +18044,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -18075,16 +18078,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -18109,16 +18112,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -18143,16 +18146,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="E285" s="22" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -18177,16 +18180,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="E286" s="22" t="s">
-        <v>711</v>
+        <v>661</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -18211,16 +18214,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>712</v>
+        <v>662</v>
       </c>
       <c r="E287" s="22" t="s">
-        <v>713</v>
+        <v>663</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -18245,16 +18248,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -18279,16 +18282,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>716</v>
+        <v>666</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -18313,16 +18316,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>719</v>
+        <v>669</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -18347,16 +18350,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -18381,16 +18384,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>721</v>
+        <v>671</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>722</v>
+        <v>672</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -18415,16 +18418,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>724</v>
+        <v>674</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -18449,16 +18452,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>726</v>
+        <v>676</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -18483,16 +18486,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>728</v>
+        <v>678</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -18517,16 +18520,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>730</v>
+        <v>680</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -18551,16 +18554,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>731</v>
+        <v>681</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -18585,16 +18588,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>734</v>
+        <v>684</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -18619,16 +18622,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="E299" s="22" t="s">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -18653,16 +18656,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -18687,16 +18690,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
       <c r="E301" s="22" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -18721,16 +18724,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -18755,16 +18758,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -18789,16 +18792,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -18823,16 +18826,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -18857,16 +18860,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -18891,16 +18894,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -18925,16 +18928,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>753</v>
+        <v>703</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -18959,16 +18962,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -18993,16 +18996,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -19027,16 +19030,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>759</v>
+        <v>709</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -19061,16 +19064,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>760</v>
+        <v>710</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -19095,16 +19098,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -19129,16 +19132,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -19163,16 +19166,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>766</v>
+        <v>716</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -19197,16 +19200,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -19231,16 +19234,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -19265,16 +19268,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>772</v>
+        <v>722</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -19299,16 +19302,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -19333,16 +19336,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -19367,16 +19370,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>778</v>
+        <v>728</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -19401,16 +19404,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>781</v>
+        <v>731</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -19435,16 +19438,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -19469,16 +19472,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>784</v>
+        <v>734</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -19503,16 +19506,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C325" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="E325" s="22" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -19537,16 +19540,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C326" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -19571,16 +19574,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>790</v>
+        <v>740</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -19605,16 +19608,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>791</v>
+        <v>741</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>792</v>
+        <v>742</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -19639,16 +19642,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -19673,16 +19676,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>796</v>
+        <v>746</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -19707,16 +19710,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -19741,16 +19744,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -19775,16 +19778,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>801</v>
+        <v>751</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>802</v>
+        <v>752</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -19809,16 +19812,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>803</v>
+        <v>753</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>804</v>
+        <v>754</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -19843,16 +19846,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>805</v>
+        <v>755</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -19877,16 +19880,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>808</v>
+        <v>758</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -19911,16 +19914,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -19945,16 +19948,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -19979,16 +19982,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -20013,16 +20016,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -20047,16 +20050,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
       <c r="E341" s="22" t="s">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -20081,16 +20084,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>819</v>
+        <v>769</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -20115,16 +20118,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>821</v>
+        <v>771</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>822</v>
+        <v>772</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -20149,16 +20152,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>823</v>
+        <v>773</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>824</v>
+        <v>774</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -20183,16 +20186,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>825</v>
+        <v>775</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>826</v>
+        <v>776</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -20217,16 +20220,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>827</v>
+        <v>777</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>828</v>
+        <v>778</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -20251,16 +20254,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>829</v>
+        <v>779</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>830</v>
+        <v>780</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -20285,16 +20288,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>831</v>
+        <v>781</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>832</v>
+        <v>782</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -20319,16 +20322,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>833</v>
+        <v>783</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -20353,16 +20356,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -20387,16 +20390,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -20421,16 +20424,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C352" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -20455,16 +20458,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C353" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>841</v>
+        <v>791</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>842</v>
+        <v>792</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -20489,16 +20492,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C354" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>843</v>
+        <v>793</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>844</v>
+        <v>794</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -20523,16 +20526,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C355" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>846</v>
+        <v>796</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -20557,16 +20560,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C356" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>848</v>
+        <v>798</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -20591,16 +20594,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C357" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -20625,16 +20628,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C358" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>851</v>
+        <v>801</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>852</v>
+        <v>802</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -20659,16 +20662,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>853</v>
+        <v>803</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>854</v>
+        <v>804</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -20693,16 +20696,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>855</v>
+        <v>805</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>856</v>
+        <v>806</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -20727,16 +20730,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>857</v>
+        <v>807</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -20761,16 +20764,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -20795,16 +20798,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>861</v>
+        <v>811</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -20829,16 +20832,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -20863,16 +20866,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>865</v>
+        <v>815</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -20897,16 +20900,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>867</v>
+        <v>817</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -20931,16 +20934,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -20965,16 +20968,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>872</v>
+        <v>822</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -20999,16 +21002,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>873</v>
+        <v>823</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>874</v>
+        <v>824</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -21033,16 +21036,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>876</v>
+        <v>826</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -21067,16 +21070,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>877</v>
+        <v>827</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>878</v>
+        <v>828</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -21101,16 +21104,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>879</v>
+        <v>829</v>
       </c>
       <c r="E372" s="22" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -21135,16 +21138,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>881</v>
+        <v>831</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -21169,16 +21172,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>884</v>
+        <v>834</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -21209,10 +21212,10 @@
         <v>48</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="E375" s="22" t="s">
-        <v>886</v>
+        <v>836</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -21243,22 +21246,22 @@
         <v>60</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>887</v>
+        <v>837</v>
       </c>
       <c r="E376" s="22" t="s">
-        <v>888</v>
+        <v>838</v>
       </c>
       <c r="F376" s="23">
         <v>45282</v>
       </c>
       <c r="G376" s="29" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
       <c r="H376" s="29" t="s">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="I376" s="29" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>66</v>
@@ -21289,10 +21292,10 @@
         <v>78</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="E377" s="22" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -21323,10 +21326,10 @@
         <v>87</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -21357,10 +21360,10 @@
         <v>96</v>
       </c>
       <c r="D379" s="21" t="s">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="E379" s="22" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -21391,10 +21394,10 @@
         <v>105</v>
       </c>
       <c r="D380" s="21" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="E380" s="22" t="s">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="F380" s="23"/>
       <c r="G380" s="24"/>
@@ -21422,25 +21425,25 @@
         <v>47</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="E381" s="22" t="s">
-        <v>901</v>
+        <v>851</v>
       </c>
       <c r="F381" s="23">
         <v>45300</v>
       </c>
       <c r="G381" s="31" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="H381" s="29" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>904</v>
+        <v>854</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>66</v>
@@ -21468,13 +21471,13 @@
         <v>47</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -21505,10 +21508,10 @@
         <v>48</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -26252,10 +26255,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>909</v>
+        <v>859</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>910</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -26263,13 +26266,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>913</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -26277,13 +26280,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>915</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -26291,13 +26294,13 @@
         <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>916</v>
+        <v>866</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>917</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -26305,13 +26308,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>918</v>
+        <v>868</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -26319,13 +26322,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
@@ -26333,55 +26336,55 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
       <c r="A8" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>925</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
       <c r="A9" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>927</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="11" t="s">
-        <v>928</v>
+        <v>878</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>930</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -26389,13 +26392,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C11" s="34">
         <v>192</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>932</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -26403,13 +26406,13 @@
         <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C12" s="34">
         <v>208</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -26417,13 +26420,13 @@
         <v>78</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C13" s="34">
         <v>224</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -26431,13 +26434,13 @@
         <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C14" s="34">
         <v>240</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>935</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -26445,13 +26448,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C15" s="34">
         <v>256</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -26459,41 +26462,41 @@
         <v>105</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C16" s="34">
         <v>272</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>937</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C17" s="34">
         <v>288</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>938</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="C18" s="34">
         <v>304</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>939</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -26501,13 +26504,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C19" s="34">
         <v>193</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>941</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -26515,13 +26518,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C20" s="34">
         <v>209</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>942</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -26529,13 +26532,13 @@
         <v>78</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C21" s="34">
         <v>225</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>943</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -26543,13 +26546,13 @@
         <v>87</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C22" s="34">
         <v>241</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>944</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
@@ -26557,13 +26560,13 @@
         <v>96</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C23" s="34">
         <v>257</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -26571,41 +26574,41 @@
         <v>105</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C24" s="34">
         <v>273</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>946</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C25" s="34">
         <v>289</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>947</v>
+        <v>897</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="C26" s="34">
         <v>305</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>948</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
@@ -26613,13 +26616,13 @@
         <v>48</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C27" s="34">
         <v>194</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -26627,13 +26630,13 @@
         <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C28" s="34">
         <v>210</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>951</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -26641,13 +26644,13 @@
         <v>78</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C29" s="34">
         <v>226</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -26655,13 +26658,13 @@
         <v>87</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C30" s="34">
         <v>242</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
@@ -26669,13 +26672,13 @@
         <v>96</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C31" s="34">
         <v>258</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -26683,41 +26686,41 @@
         <v>105</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C32" s="34">
         <v>274</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>955</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C33" s="34">
         <v>290</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>956</v>
+        <v>906</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="C34" s="34">
         <v>306</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>957</v>
+        <v>907</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -26725,7 +26728,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C35" s="34">
         <v>195</v>
@@ -26739,7 +26742,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C36" s="34">
         <v>211</v>
@@ -26753,7 +26756,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C37" s="34">
         <v>227</v>
@@ -26767,7 +26770,7 @@
         <v>87</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C38" s="34">
         <v>243</v>
@@ -26781,7 +26784,7 @@
         <v>96</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C39" s="34">
         <v>259</v>
@@ -26795,7 +26798,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C40" s="34">
         <v>275</v>
@@ -26806,10 +26809,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C41" s="34">
         <v>291</v>
@@ -26820,10 +26823,10 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="C42" s="34">
         <v>307</v>
@@ -26837,7 +26840,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C43" s="34">
         <v>196</v>
@@ -26851,7 +26854,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C44" s="34">
         <v>212</v>
@@ -26865,7 +26868,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C45" s="34">
         <v>228</v>
@@ -26879,7 +26882,7 @@
         <v>87</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C46" s="34">
         <v>244</v>
@@ -26893,7 +26896,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C47" s="34">
         <v>260</v>
@@ -26907,7 +26910,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C48" s="34">
         <v>276</v>
@@ -26918,10 +26921,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C49" s="34">
         <v>292</v>
@@ -26932,10 +26935,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="C50" s="34">
         <v>308</v>
@@ -27931,7 +27934,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>960</v>
+        <v>910</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>70</v>
